--- a/taskList.xlsx
+++ b/taskList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkDir\netease_noob_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B7536F-446C-48B9-AADC-A31BF9E4371D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE6957B-167F-404B-A3AB-CDFA80426CA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="4620" windowWidth="16200" windowHeight="16230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="3120" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,22 +386,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1" tint="0.249977111117893"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -481,58 +465,43 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -561,13 +530,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685480</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>4234</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -583,8 +552,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="962025"/>
-          <a:ext cx="11229655" cy="204259"/>
+          <a:off x="0" y="428625"/>
+          <a:ext cx="11229655" cy="4234"/>
           <a:chOff x="1093597" y="1969965"/>
           <a:chExt cx="9791510" cy="358089"/>
         </a:xfrm>
@@ -694,216 +663,6 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>86815</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="组合 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD32BC45-A392-47EA-8104-3250E286EF38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="1457324"/>
-          <a:ext cx="11229974" cy="315416"/>
-          <a:chOff x="895348" y="1607047"/>
-          <a:chExt cx="10426892" cy="437580"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="平行四边形 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DCF88B2-ACB0-46D2-98CA-F1861E85AFD0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2257425" y="1981201"/>
-            <a:ext cx="9064815" cy="63426"/>
-          </a:xfrm>
-          <a:prstGeom prst="parallelogram">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="3">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="平行四边形 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2204D98-BC75-44AF-8A51-13885B543934}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="895348" y="1607047"/>
-            <a:ext cx="1866002" cy="403136"/>
-          </a:xfrm>
-          <a:prstGeom prst="parallelogram">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:gradFill flip="none" rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:srgbClr val="0070C0">
-                  <a:shade val="30000"/>
-                  <a:satMod val="115000"/>
-                </a:srgbClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:srgbClr val="0070C0">
-                  <a:shade val="67500"/>
-                  <a:satMod val="115000"/>
-                </a:srgbClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:srgbClr val="0070C0">
-                  <a:shade val="100000"/>
-                  <a:satMod val="115000"/>
-                </a:srgbClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="18900000" scaled="1"/>
-            <a:tileRect/>
-          </a:gradFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="3">
-            <a:schemeClr val="lt1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="1">
-                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-              </a:rPr>
-              <a:t>学习地图</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2529840</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>276655</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F62B0CF-8501-4A88-AEA2-BB0B6485499B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="12146280" y="0"/>
-          <a:ext cx="1691640" cy="1276780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1172,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1190,274 +949,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" ht="24.75">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1">
-      <c r="A5" s="15" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" ht="24.75">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="24.75">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" s="5" customFormat="1">
-      <c r="A8" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="280.5">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="247.5">
+      <c r="A5" s="11"/>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="99">
+      <c r="A6" s="11"/>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="409.5">
+      <c r="A7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="82.5">
+      <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="280.5">
-      <c r="A9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="231">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="247.5">
-      <c r="A10" s="16"/>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" ht="99">
-      <c r="A11" s="16"/>
-      <c r="B11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="99">
+      <c r="A10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="247.5">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="409.5">
-      <c r="A12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" ht="82.5">
-      <c r="A13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="231">
-      <c r="A14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="99">
-      <c r="A15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="247.5">
-      <c r="A16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="148.5">
-      <c r="A17" s="7" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="148.5">
+      <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="7" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="148.5">
-      <c r="A18" s="7" t="s">
+    <row r="13" spans="1:6" ht="148.5">
+      <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="D16:D18"/>
+  <mergeCells count="6">
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="D11:D13"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="F4:F6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
